--- a/biology/Zoologie/Gobie_paganel/Gobie_paganel.xlsx
+++ b/biology/Zoologie/Gobie_paganel/Gobie_paganel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobius paganellus
 Le Gobie paganel (Gobius paganellus) est une espèce de poissons de la famille des Gobiidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tête assez massive, comme celle du gobie noir. Grands yeux et lèvres épaisses. La première dorsale est arrondie et de même hauteur que la seconde. Corps brun marbré de taches claires.
 Le gobie paganel est reconnaissable à la bordure orangée de sa première dorsale.
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit dans l'océan Atlantique, la mer Méditerranée et la mer Noire[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit dans l'océan Atlantique, la mer Méditerranée et la mer Noire.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est fréquente dans les ports et le pourtour des digues. Comme ses congénères, il est très vorace et se nourrit essentiellement de proies vivantes.
 (ébauche copiée de http://perso.wanadoo.fr/christian.coudre/0653.html)
